--- a/uploads/contacts_example.xlsx
+++ b/uploads/contacts_example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Số điện thoại</t>
   </si>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,9 +529,6 @@
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -588,9 +585,6 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>

--- a/uploads/contacts_example.xlsx
+++ b/uploads/contacts_example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Số điện thoại</t>
   </si>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,6 +529,9 @@
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -585,6 +588,9 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>

--- a/uploads/contacts_example.xlsx
+++ b/uploads/contacts_example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Số điện thoại</t>
   </si>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,9 +529,6 @@
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -588,9 +585,6 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>

--- a/uploads/contacts_example.xlsx
+++ b/uploads/contacts_example.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet contact" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,100 +24,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Tên khách hàng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>Nguyen Ba Hung</t>
+  </si>
+  <si>
+    <t>6D4 - Thanh Xuan Bac Ward</t>
+  </si>
+  <si>
+    <t>คอมโบ 5 หลอด - 499 บาท - จัดส่งฟรี</t>
+  </si>
+  <si>
+    <t>http://wallrepaircream.zeromaxusa.com/?utm_source=Campaign%20Source%20*&amp;utm_medium=Campaign%20Medium%20*&amp;utm_campaign=Campaign%20Name&amp;utm_term=Campaign%20Term&amp;utm_content=Campaign%20Content</t>
+  </si>
+  <si>
+    <t>Campaign Source *</t>
+  </si>
+  <si>
+    <t>Campaign Medium *</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Campaign Term</t>
+  </si>
+  <si>
+    <t>Campaign Content</t>
+  </si>
+  <si>
+    <t>123.24.177.254</t>
+  </si>
+  <si>
+    <t>Thời gian đặt hàng</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>SĐT</t>
   </si>
   <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>Ghi chú khách hàng</t>
-  </si>
-  <si>
-    <t>Link landing page</t>
-  </si>
-  <si>
-    <t>Nguyễn mạnh linh</t>
-  </si>
-  <si>
-    <t>Hà nội</t>
-  </si>
-  <si>
-    <t>Màu đỏ</t>
-  </si>
-  <si>
-    <t>https://ladi.huynguyen.info/</t>
-  </si>
-  <si>
-    <t>3 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>Giảm giá không</t>
-  </si>
-  <si>
-    <t>4 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>5 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>6 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>7 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>8 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>9 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>10 ชุด - 2599 บาท - โปรโมชั่นพิเศษ</t>
-  </si>
-  <si>
-    <t>0349991834</t>
-  </si>
-  <si>
-    <t>0349991837</t>
-  </si>
-  <si>
-    <t>0349991838</t>
-  </si>
-  <si>
-    <t>0349991839</t>
-  </si>
-  <si>
-    <t>0349991840</t>
-  </si>
-  <si>
-    <t>0349991841</t>
-  </si>
-  <si>
-    <t>0349991842</t>
-  </si>
-  <si>
-    <t>www.alibaba.com</t>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Yêu cầu đặt hàng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign Source </t>
+  </si>
+  <si>
+    <t>Campaign Medium</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Capture Form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,12 +129,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,24 +142,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,9 +251,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -259,9 +286,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -441,226 +468,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44042.548298611109</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>43534543</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="2">
+        <v>35435435</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="O2" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>